--- a/realme/OCTOBER/24.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/24.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -130,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Realme RSM Appayon
 </t>
@@ -423,7 +423,7 @@
     <t>24.10.2021</t>
   </si>
   <si>
-    <t>Brac Bank</t>
+    <t>Bank</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,13 +744,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2538,6 +2531,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2565,12 +2570,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,12 +2580,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4152,67 +4145,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="276"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4221,52 +4214,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="277" t="s">
+      <c r="D4" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="277" t="s">
+      <c r="E4" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="277" t="s">
+      <c r="F4" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="277" t="s">
+      <c r="G4" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="277" t="s">
+      <c r="H4" s="268" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="277" t="s">
+      <c r="I4" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="277" t="s">
+      <c r="J4" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="277" t="s">
+      <c r="K4" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="277" t="s">
+      <c r="L4" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="277" t="s">
+      <c r="M4" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="283" t="s">
+      <c r="N4" s="270" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="281" t="s">
+      <c r="O4" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="281" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4279,22 +4272,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="274"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="280"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="284"/>
+      <c r="P5" s="282"/>
       <c r="Q5" s="125" t="s">
         <v>42</v>
       </c>
@@ -7362,6 +7355,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7378,9 +7374,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17530,7 +17523,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
